--- a/team_specific_matrix/Davidson_A.xlsx
+++ b/team_specific_matrix/Davidson_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1730769230769231</v>
+        <v>0.1755725190839695</v>
       </c>
       <c r="C2">
-        <v>0.5961538461538461</v>
+        <v>0.583969465648855</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01923076923076923</v>
+        <v>0.02290076335877863</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1201923076923077</v>
+        <v>0.1259541984732824</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.09134615384615384</v>
+        <v>0.0916030534351145</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.007936507936507936</v>
+        <v>0.02484472049689441</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.03968253968253968</v>
+        <v>0.03105590062111801</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7619047619047619</v>
+        <v>0.7453416149068323</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1904761904761905</v>
+        <v>0.1987577639751553</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1</v>
+        <v>0.08108108108108109</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6</v>
+        <v>0.6216216216216216</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.3</v>
+        <v>0.2972972972972973</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.08024691358024691</v>
+        <v>0.08415841584158416</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.006172839506172839</v>
+        <v>0.004950495049504951</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.06790123456790123</v>
+        <v>0.06930693069306931</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2160493827160494</v>
+        <v>0.2326732673267327</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01234567901234568</v>
+        <v>0.01485148514851485</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1851851851851852</v>
+        <v>0.1683168316831683</v>
       </c>
       <c r="R6">
-        <v>0.08024691358024691</v>
+        <v>0.08415841584158416</v>
       </c>
       <c r="S6">
-        <v>0.3518518518518519</v>
+        <v>0.3415841584158416</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1515151515151515</v>
+        <v>0.1582278481012658</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02272727272727273</v>
+        <v>0.0189873417721519</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.06818181818181818</v>
+        <v>0.06329113924050633</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1287878787878788</v>
+        <v>0.120253164556962</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.007575757575757576</v>
+        <v>0.006329113924050633</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1590909090909091</v>
+        <v>0.1518987341772152</v>
       </c>
       <c r="R7">
-        <v>0.08333333333333333</v>
+        <v>0.1012658227848101</v>
       </c>
       <c r="S7">
-        <v>0.3787878787878788</v>
+        <v>0.379746835443038</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.09278350515463918</v>
+        <v>0.09411764705882353</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01374570446735395</v>
+        <v>0.01764705882352941</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.05498281786941581</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.127147766323024</v>
+        <v>0.1264705882352941</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.02061855670103093</v>
+        <v>0.02058823529411765</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1855670103092784</v>
+        <v>0.1823529411764706</v>
       </c>
       <c r="R8">
-        <v>0.1099656357388316</v>
+        <v>0.1117647058823529</v>
       </c>
       <c r="S8">
-        <v>0.3951890034364261</v>
+        <v>0.3882352941176471</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.09027777777777778</v>
+        <v>0.09941520467836257</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.006944444444444444</v>
+        <v>0.01169590643274854</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.05555555555555555</v>
+        <v>0.07017543859649122</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1180555555555556</v>
+        <v>0.1169590643274854</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.006944444444444444</v>
+        <v>0.01169590643274854</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.2222222222222222</v>
+        <v>0.2046783625730994</v>
       </c>
       <c r="R9">
-        <v>0.0625</v>
+        <v>0.06432748538011696</v>
       </c>
       <c r="S9">
-        <v>0.4375</v>
+        <v>0.4210526315789473</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1077777777777778</v>
+        <v>0.1119266055045872</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02444444444444445</v>
+        <v>0.02385321100917431</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.08333333333333333</v>
+        <v>0.08623853211009175</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1044444444444445</v>
+        <v>0.1055045871559633</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01444444444444444</v>
+        <v>0.01376146788990826</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1866666666666667</v>
+        <v>0.1871559633027523</v>
       </c>
       <c r="R10">
-        <v>0.08666666666666667</v>
+        <v>0.0834862385321101</v>
       </c>
       <c r="S10">
-        <v>0.3922222222222222</v>
+        <v>0.3880733944954128</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.186046511627907</v>
+        <v>0.1705426356589147</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.08372093023255814</v>
+        <v>0.08527131782945736</v>
       </c>
       <c r="K11">
-        <v>0.2511627906976744</v>
+        <v>0.2364341085271318</v>
       </c>
       <c r="L11">
-        <v>0.4558139534883721</v>
+        <v>0.4883720930232558</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.02325581395348837</v>
+        <v>0.01937984496124031</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7373737373737373</v>
+        <v>0.7322834645669292</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2121212121212121</v>
+        <v>0.2047244094488189</v>
       </c>
       <c r="K12">
-        <v>0.0101010101010101</v>
+        <v>0.01574803149606299</v>
       </c>
       <c r="L12">
-        <v>0.0101010101010101</v>
+        <v>0.01574803149606299</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.0303030303030303</v>
+        <v>0.03149606299212598</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6666666666666666</v>
+        <v>0.6285714285714286</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3</v>
+        <v>0.3428571428571429</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.03333333333333333</v>
+        <v>0.02857142857142857</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01481481481481482</v>
+        <v>0.02339181286549707</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1703703703703704</v>
+        <v>0.152046783625731</v>
       </c>
       <c r="I15">
-        <v>0.1037037037037037</v>
+        <v>0.09941520467836257</v>
       </c>
       <c r="J15">
-        <v>0.3925925925925926</v>
+        <v>0.3976608187134503</v>
       </c>
       <c r="K15">
-        <v>0.02222222222222222</v>
+        <v>0.02339181286549707</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01481481481481482</v>
+        <v>0.01754385964912281</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.05185185185185185</v>
+        <v>0.04678362573099415</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2296296296296296</v>
+        <v>0.239766081871345</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.0072992700729927</v>
+        <v>0.005882352941176471</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.218978102189781</v>
+        <v>0.2176470588235294</v>
       </c>
       <c r="I16">
-        <v>0.06569343065693431</v>
+        <v>0.07647058823529412</v>
       </c>
       <c r="J16">
-        <v>0.4233576642335766</v>
+        <v>0.4</v>
       </c>
       <c r="K16">
-        <v>0.0948905109489051</v>
+        <v>0.08823529411764706</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.0145985401459854</v>
+        <v>0.01764705882352941</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.04379562043795621</v>
+        <v>0.03529411764705882</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1313868613138686</v>
+        <v>0.1588235294117647</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01967213114754099</v>
+        <v>0.01949860724233983</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1737704918032787</v>
+        <v>0.1643454038997214</v>
       </c>
       <c r="I17">
-        <v>0.1049180327868852</v>
+        <v>0.1002785515320334</v>
       </c>
       <c r="J17">
-        <v>0.4459016393442623</v>
+        <v>0.4428969359331476</v>
       </c>
       <c r="K17">
-        <v>0.08852459016393442</v>
+        <v>0.08635097493036212</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01311475409836066</v>
+        <v>0.01392757660167131</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.05573770491803279</v>
+        <v>0.06128133704735376</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.09836065573770492</v>
+        <v>0.1114206128133705</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01388888888888889</v>
+        <v>0.0115606936416185</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1875</v>
+        <v>0.1734104046242775</v>
       </c>
       <c r="I18">
-        <v>0.1111111111111111</v>
+        <v>0.1040462427745665</v>
       </c>
       <c r="J18">
-        <v>0.4444444444444444</v>
+        <v>0.4797687861271676</v>
       </c>
       <c r="K18">
-        <v>0.1041666666666667</v>
+        <v>0.1040462427745665</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01388888888888889</v>
+        <v>0.01734104046242774</v>
       </c>
       <c r="N18">
-        <v>0.006944444444444444</v>
+        <v>0.005780346820809248</v>
       </c>
       <c r="O18">
-        <v>0.04166666666666666</v>
+        <v>0.04046242774566474</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.0763888888888889</v>
+        <v>0.06358381502890173</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01268742791234141</v>
+        <v>0.01333333333333333</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1845444059976932</v>
+        <v>0.1819047619047619</v>
       </c>
       <c r="I19">
-        <v>0.08650519031141868</v>
+        <v>0.08476190476190476</v>
       </c>
       <c r="J19">
-        <v>0.3933102652825836</v>
+        <v>0.3904761904761905</v>
       </c>
       <c r="K19">
-        <v>0.1176470588235294</v>
+        <v>0.120952380952381</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02537485582468281</v>
+        <v>0.02190476190476191</v>
       </c>
       <c r="N19">
-        <v>0.002306805074971165</v>
+        <v>0.001904761904761905</v>
       </c>
       <c r="O19">
-        <v>0.0726643598615917</v>
+        <v>0.07809523809523809</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.104959630911188</v>
+        <v>0.1066666666666667</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Davidson_A.xlsx
+++ b/team_specific_matrix/Davidson_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1755725190839695</v>
+        <v>0.1736111111111111</v>
       </c>
       <c r="C2">
-        <v>0.583969465648855</v>
+        <v>0.5902777777777778</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.02290076335877863</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1259541984732824</v>
+        <v>0.1215277777777778</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.0916030534351145</v>
+        <v>0.08680555555555555</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>0.005617977528089887</v>
       </c>
       <c r="C3">
-        <v>0.02484472049689441</v>
+        <v>0.02247191011235955</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.03105590062111801</v>
+        <v>0.02808988764044944</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7453416149068323</v>
+        <v>0.7471910112359551</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1987577639751553</v>
+        <v>0.1966292134831461</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.08108108108108109</v>
+        <v>0.07317073170731707</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6216216216216216</v>
+        <v>0.6585365853658537</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2972972972972973</v>
+        <v>0.2682926829268293</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -717,7 +717,7 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.08415841584158416</v>
+        <v>0.08181818181818182</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.004950495049504951</v>
+        <v>0.004545454545454545</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.06930693069306931</v>
+        <v>0.06363636363636363</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2326732673267327</v>
+        <v>0.2318181818181818</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01485148514851485</v>
+        <v>0.01363636363636364</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1683168316831683</v>
+        <v>0.1772727272727273</v>
       </c>
       <c r="R6">
-        <v>0.08415841584158416</v>
+        <v>0.08636363636363636</v>
       </c>
       <c r="S6">
-        <v>0.3415841584158416</v>
+        <v>0.3409090909090909</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1582278481012658</v>
+        <v>0.1602209944751381</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.0189873417721519</v>
+        <v>0.02209944751381215</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.06329113924050633</v>
+        <v>0.05524861878453038</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.120253164556962</v>
+        <v>0.1104972375690608</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.006329113924050633</v>
+        <v>0.01104972375690608</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1518987341772152</v>
+        <v>0.1491712707182321</v>
       </c>
       <c r="R7">
-        <v>0.1012658227848101</v>
+        <v>0.09392265193370165</v>
       </c>
       <c r="S7">
-        <v>0.379746835443038</v>
+        <v>0.3977900552486188</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.09411764705882353</v>
+        <v>0.0968586387434555</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01764705882352941</v>
+        <v>0.02094240837696335</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.05882352941176471</v>
+        <v>0.06282722513089005</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1264705882352941</v>
+        <v>0.1282722513089005</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.02058823529411765</v>
+        <v>0.01832460732984293</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1823529411764706</v>
+        <v>0.1884816753926702</v>
       </c>
       <c r="R8">
-        <v>0.1117647058823529</v>
+        <v>0.09947643979057591</v>
       </c>
       <c r="S8">
-        <v>0.3882352941176471</v>
+        <v>0.3848167539267016</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.09941520467836257</v>
+        <v>0.09793814432989691</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01169590643274854</v>
+        <v>0.0154639175257732</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.005154639175257732</v>
       </c>
       <c r="F9">
-        <v>0.07017543859649122</v>
+        <v>0.06701030927835051</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1169590643274854</v>
+        <v>0.1134020618556701</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01169590643274854</v>
+        <v>0.01030927835051546</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.2046783625730994</v>
+        <v>0.2010309278350516</v>
       </c>
       <c r="R9">
-        <v>0.06432748538011696</v>
+        <v>0.06185567010309279</v>
       </c>
       <c r="S9">
-        <v>0.4210526315789473</v>
+        <v>0.4278350515463917</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1119266055045872</v>
+        <v>0.1076417419884963</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02385321100917431</v>
+        <v>0.02136400986031224</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.08623853211009175</v>
+        <v>0.08463434675431389</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1055045871559633</v>
+        <v>0.1035332785538209</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01376146788990826</v>
+        <v>0.01314708299096138</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1871559633027523</v>
+        <v>0.1914543960558751</v>
       </c>
       <c r="R10">
-        <v>0.0834862385321101</v>
+        <v>0.08299096138044372</v>
       </c>
       <c r="S10">
-        <v>0.3880733944954128</v>
+        <v>0.3952341824157765</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1705426356589147</v>
+        <v>0.1701388888888889</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.08527131782945736</v>
+        <v>0.0763888888888889</v>
       </c>
       <c r="K11">
-        <v>0.2364341085271318</v>
+        <v>0.2326388888888889</v>
       </c>
       <c r="L11">
-        <v>0.4883720930232558</v>
+        <v>0.5</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01937984496124031</v>
+        <v>0.02083333333333333</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7322834645669292</v>
+        <v>0.7379310344827587</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2047244094488189</v>
+        <v>0.2068965517241379</v>
       </c>
       <c r="K12">
-        <v>0.01574803149606299</v>
+        <v>0.01379310344827586</v>
       </c>
       <c r="L12">
-        <v>0.01574803149606299</v>
+        <v>0.01379310344827586</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.03149606299212598</v>
+        <v>0.02758620689655172</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6285714285714286</v>
+        <v>0.6190476190476191</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3428571428571429</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.02857142857142857</v>
+        <v>0.02380952380952381</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.02339181286549707</v>
+        <v>0.02105263157894737</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.152046783625731</v>
+        <v>0.1421052631578947</v>
       </c>
       <c r="I15">
-        <v>0.09941520467836257</v>
+        <v>0.09473684210526316</v>
       </c>
       <c r="J15">
-        <v>0.3976608187134503</v>
+        <v>0.4052631578947368</v>
       </c>
       <c r="K15">
-        <v>0.02339181286549707</v>
+        <v>0.03684210526315789</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01754385964912281</v>
+        <v>0.01578947368421053</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.04678362573099415</v>
+        <v>0.04210526315789474</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.239766081871345</v>
+        <v>0.2421052631578947</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.005882352941176471</v>
+        <v>0.005263157894736842</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.2176470588235294</v>
+        <v>0.2052631578947368</v>
       </c>
       <c r="I16">
-        <v>0.07647058823529412</v>
+        <v>0.09473684210526316</v>
       </c>
       <c r="J16">
-        <v>0.4</v>
+        <v>0.4052631578947368</v>
       </c>
       <c r="K16">
-        <v>0.08823529411764706</v>
+        <v>0.08421052631578947</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.01764705882352941</v>
+        <v>0.01578947368421053</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.03529411764705882</v>
+        <v>0.03684210526315789</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1588235294117647</v>
+        <v>0.1526315789473684</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01949860724233983</v>
+        <v>0.019559902200489</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1643454038997214</v>
+        <v>0.1613691931540342</v>
       </c>
       <c r="I17">
-        <v>0.1002785515320334</v>
+        <v>0.1026894865525672</v>
       </c>
       <c r="J17">
-        <v>0.4428969359331476</v>
+        <v>0.4449877750611247</v>
       </c>
       <c r="K17">
-        <v>0.08635097493036212</v>
+        <v>0.08557457212713937</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01392757660167131</v>
+        <v>0.01222493887530562</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.06128133704735376</v>
+        <v>0.06112469437652811</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1114206128133705</v>
+        <v>0.1124694376528117</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.0115606936416185</v>
+        <v>0.0106951871657754</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1734104046242775</v>
+        <v>0.1711229946524064</v>
       </c>
       <c r="I18">
-        <v>0.1040462427745665</v>
+        <v>0.106951871657754</v>
       </c>
       <c r="J18">
-        <v>0.4797687861271676</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="K18">
-        <v>0.1040462427745665</v>
+        <v>0.1122994652406417</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01734104046242774</v>
+        <v>0.0160427807486631</v>
       </c>
       <c r="N18">
-        <v>0.005780346820809248</v>
+        <v>0.0053475935828877</v>
       </c>
       <c r="O18">
-        <v>0.04046242774566474</v>
+        <v>0.0427807486631016</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.06358381502890173</v>
+        <v>0.06417112299465241</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01333333333333333</v>
+        <v>0.01261564339781329</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1819047619047619</v>
+        <v>0.1867115222876367</v>
       </c>
       <c r="I19">
-        <v>0.08476190476190476</v>
+        <v>0.08242220353238015</v>
       </c>
       <c r="J19">
-        <v>0.3904761904761905</v>
+        <v>0.3851976450798991</v>
       </c>
       <c r="K19">
-        <v>0.120952380952381</v>
+        <v>0.1177460050462574</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02190476190476191</v>
+        <v>0.02523128679562658</v>
       </c>
       <c r="N19">
-        <v>0.001904761904761905</v>
+        <v>0.002523128679562658</v>
       </c>
       <c r="O19">
-        <v>0.07809523809523809</v>
+        <v>0.07569386038687972</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1066666666666667</v>
+        <v>0.1118587047939445</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Davidson_A.xlsx
+++ b/team_specific_matrix/Davidson_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1736111111111111</v>
+        <v>0.1739130434782609</v>
       </c>
       <c r="C2">
-        <v>0.5902777777777778</v>
+        <v>0.5852842809364549</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.02777777777777778</v>
+        <v>0.02675585284280936</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1215277777777778</v>
+        <v>0.1237458193979933</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.08680555555555555</v>
+        <v>0.0903010033444816</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.005617977528089887</v>
+        <v>0.00546448087431694</v>
       </c>
       <c r="C3">
-        <v>0.02247191011235955</v>
+        <v>0.02185792349726776</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02808988764044944</v>
+        <v>0.0273224043715847</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7471910112359551</v>
+        <v>0.7486338797814208</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1966292134831461</v>
+        <v>0.1967213114754098</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.07317073170731707</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6585365853658537</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2682926829268293</v>
+        <v>0.2619047619047619</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.08181818181818182</v>
+        <v>0.08225108225108226</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.004545454545454545</v>
+        <v>0.004329004329004329</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.06363636363636363</v>
+        <v>0.06060606060606061</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2318181818181818</v>
+        <v>0.2251082251082251</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01363636363636364</v>
+        <v>0.01298701298701299</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1772727272727273</v>
+        <v>0.1774891774891775</v>
       </c>
       <c r="R6">
-        <v>0.08636363636363636</v>
+        <v>0.08225108225108226</v>
       </c>
       <c r="S6">
-        <v>0.3409090909090909</v>
+        <v>0.354978354978355</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1602209944751381</v>
+        <v>0.160427807486631</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02209944751381215</v>
+        <v>0.0213903743315508</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.05524861878453038</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1104972375690608</v>
+        <v>0.106951871657754</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01104972375690608</v>
+        <v>0.0106951871657754</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1491712707182321</v>
+        <v>0.1443850267379679</v>
       </c>
       <c r="R7">
-        <v>0.09392265193370165</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="S7">
-        <v>0.3977900552486188</v>
+        <v>0.4064171122994653</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.0968586387434555</v>
+        <v>0.09669211195928754</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02094240837696335</v>
+        <v>0.02035623409669211</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.06282722513089005</v>
+        <v>0.06615776081424936</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1282722513089005</v>
+        <v>0.1272264631043257</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01832460732984293</v>
+        <v>0.0178117048346056</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1884816753926702</v>
+        <v>0.1933842239185751</v>
       </c>
       <c r="R8">
-        <v>0.09947643979057591</v>
+        <v>0.09923664122137404</v>
       </c>
       <c r="S8">
-        <v>0.3848167539267016</v>
+        <v>0.3791348600508906</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.09793814432989691</v>
+        <v>0.09852216748768473</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.0154639175257732</v>
+        <v>0.01477832512315271</v>
       </c>
       <c r="E9">
-        <v>0.005154639175257732</v>
+        <v>0.004926108374384237</v>
       </c>
       <c r="F9">
-        <v>0.06701030927835051</v>
+        <v>0.06896551724137931</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1134020618556701</v>
+        <v>0.1133004926108374</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01030927835051546</v>
+        <v>0.009852216748768473</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.2010309278350516</v>
+        <v>0.1970443349753695</v>
       </c>
       <c r="R9">
-        <v>0.06185567010309279</v>
+        <v>0.06403940886699508</v>
       </c>
       <c r="S9">
-        <v>0.4278350515463917</v>
+        <v>0.4285714285714285</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1076417419884963</v>
+        <v>0.1062648691514671</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02136400986031224</v>
+        <v>0.02141157811260904</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.08463434675431389</v>
+        <v>0.08643933386201427</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1035332785538209</v>
+        <v>0.1046788263283109</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01314708299096138</v>
+        <v>0.0126883425852498</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1914543960558751</v>
+        <v>0.190325138778747</v>
       </c>
       <c r="R10">
-        <v>0.08299096138044372</v>
+        <v>0.0816812053925456</v>
       </c>
       <c r="S10">
-        <v>0.3952341824157765</v>
+        <v>0.3965107057890563</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1701388888888889</v>
+        <v>0.1638795986622074</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.0763888888888889</v>
+        <v>0.08361204013377926</v>
       </c>
       <c r="K11">
-        <v>0.2326388888888889</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="L11">
-        <v>0.5</v>
+        <v>0.5016722408026756</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.02083333333333333</v>
+        <v>0.02006688963210702</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7379310344827587</v>
+        <v>0.7350993377483444</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2068965517241379</v>
+        <v>0.2119205298013245</v>
       </c>
       <c r="K12">
-        <v>0.01379310344827586</v>
+        <v>0.01324503311258278</v>
       </c>
       <c r="L12">
-        <v>0.01379310344827586</v>
+        <v>0.01324503311258278</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.02758620689655172</v>
+        <v>0.02649006622516556</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6190476190476191</v>
+        <v>0.6086956521739131</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3571428571428572</v>
+        <v>0.3695652173913043</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.02380952380952381</v>
+        <v>0.02173913043478261</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.02105263157894737</v>
+        <v>0.02030456852791878</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1421052631578947</v>
+        <v>0.1421319796954315</v>
       </c>
       <c r="I15">
-        <v>0.09473684210526316</v>
+        <v>0.09644670050761421</v>
       </c>
       <c r="J15">
-        <v>0.4052631578947368</v>
+        <v>0.4060913705583756</v>
       </c>
       <c r="K15">
-        <v>0.03684210526315789</v>
+        <v>0.04060913705583756</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01578947368421053</v>
+        <v>0.01522842639593909</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.04210526315789474</v>
+        <v>0.04060913705583756</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2421052631578947</v>
+        <v>0.2385786802030457</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.005263157894736842</v>
+        <v>0.005076142131979695</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.2052631578947368</v>
+        <v>0.2030456852791878</v>
       </c>
       <c r="I16">
-        <v>0.09473684210526316</v>
+        <v>0.09644670050761421</v>
       </c>
       <c r="J16">
-        <v>0.4052631578947368</v>
+        <v>0.3959390862944163</v>
       </c>
       <c r="K16">
-        <v>0.08421052631578947</v>
+        <v>0.08121827411167512</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.01578947368421053</v>
+        <v>0.02030456852791878</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.03684210526315789</v>
+        <v>0.04568527918781726</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1526315789473684</v>
+        <v>0.1522842639593909</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.019559902200489</v>
+        <v>0.01891252955082742</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1613691931540342</v>
+        <v>0.1607565011820331</v>
       </c>
       <c r="I17">
-        <v>0.1026894865525672</v>
+        <v>0.1016548463356974</v>
       </c>
       <c r="J17">
-        <v>0.4449877750611247</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="K17">
-        <v>0.08557457212713937</v>
+        <v>0.08747044917257683</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01222493887530562</v>
+        <v>0.01654846335697399</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.06112469437652811</v>
+        <v>0.0591016548463357</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1124694376528117</v>
+        <v>0.1111111111111111</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.0106951871657754</v>
+        <v>0.01047120418848168</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1711229946524064</v>
+        <v>0.1727748691099476</v>
       </c>
       <c r="I18">
-        <v>0.106951871657754</v>
+        <v>0.1047120418848168</v>
       </c>
       <c r="J18">
-        <v>0.4705882352941176</v>
+        <v>0.4712041884816754</v>
       </c>
       <c r="K18">
-        <v>0.1122994652406417</v>
+        <v>0.1151832460732984</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.0160427807486631</v>
+        <v>0.01570680628272251</v>
       </c>
       <c r="N18">
-        <v>0.0053475935828877</v>
+        <v>0.005235602094240838</v>
       </c>
       <c r="O18">
-        <v>0.0427807486631016</v>
+        <v>0.0418848167539267</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.06417112299465241</v>
+        <v>0.06282722513089005</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01261564339781329</v>
+        <v>0.01295546558704453</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1867115222876367</v>
+        <v>0.1846153846153846</v>
       </c>
       <c r="I19">
-        <v>0.08242220353238015</v>
+        <v>0.08421052631578947</v>
       </c>
       <c r="J19">
-        <v>0.3851976450798991</v>
+        <v>0.3854251012145749</v>
       </c>
       <c r="K19">
-        <v>0.1177460050462574</v>
+        <v>0.1165991902834008</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02523128679562658</v>
+        <v>0.02510121457489878</v>
       </c>
       <c r="N19">
-        <v>0.002523128679562658</v>
+        <v>0.00242914979757085</v>
       </c>
       <c r="O19">
-        <v>0.07569386038687972</v>
+        <v>0.07611336032388664</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1118587047939445</v>
+        <v>0.1125506072874494</v>
       </c>
     </row>
   </sheetData>
